--- a/RPA/Processamento de Pedido de Emprestimos/PedidosEmprestimo.xlsx
+++ b/RPA/Processamento de Pedido de Emprestimos/PedidosEmprestimo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UiPath\Processamento de Pedido de Emprestimos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UiPath\RPA\Processamento de Pedido de Emprestimos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E6E434-7849-4A25-A627-507225979EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199A450F-1361-4231-B9D8-A54A84CB465D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6090" yWindow="1695" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6435" yWindow="2040" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pedidos" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>APR</t>
   </si>
@@ -67,6 +67,24 @@
   </si>
   <si>
     <t>marcelo@teste.com</t>
+  </si>
+  <si>
+    <t>APROVADO</t>
+  </si>
+  <si>
+    <t>6230e0c12b0765004ea04df5</t>
+  </si>
+  <si>
+    <t>6230e0ca2b0765004ea04df6</t>
+  </si>
+  <si>
+    <t>6230e0d22b0765004ea04df7</t>
+  </si>
+  <si>
+    <t>6230e0db2b0765004ea04df8</t>
+  </si>
+  <si>
+    <t>NÃO APROVADO</t>
   </si>
 </sst>
 </file>
@@ -119,12 +137,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -409,7 +429,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,6 +484,15 @@
       <c r="E2">
         <v>20</v>
       </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -481,6 +510,15 @@
       <c r="E3">
         <v>30</v>
       </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -498,6 +536,15 @@
       <c r="E4">
         <v>45</v>
       </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -515,6 +562,15 @@
       <c r="E5">
         <v>29</v>
       </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -532,6 +588,9 @@
       <c r="E6">
         <v>70</v>
       </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -548,6 +607,9 @@
       </c>
       <c r="E7">
         <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
